--- a/data/output/candidate_cv_one_pager.xlsx
+++ b/data/output/candidate_cv_one_pager.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,143 +448,163 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PROFILE OVERVIEW</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Functional analyst with over 5 years of experience in **SAP** system support and improvement, focusing on implementation of enhancements and functionalities, process automation, and incident management. Proven experience in leading integration testing, working in **agile** environments, and collaborating with global technical and functional teams. Skilled in translating business requirements into clear technical specifications, managing end-to-end implementations.</t>
+          <t>Valeria Colegiales</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>TOWER</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SAP S/4HANA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PROFILE OVERVIEW</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Functional analyst with over 5 years of experience in support and enhancement of **SAP** systems (**MM**, **FI**, **PM**), focusing on implementation of improvements and functionalities, process automation, and incident management. Experienced in leading integration testing, working in **Agile** environments, and collaborating with global technical and functional teams. Capable of translating business requirements into clear technical specifications, managing end-to-end implementations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>PROFESSIONAL EDUCATION</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Industrial Engineering
 Industrial Engineering</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>INDUSTRY EXPERIENCE</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Communications, Media &amp; Technology
-Financial Services
-Health &amp; Public Service
-Products
-Resources</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>FUNCTIONAL EXPERIENCE</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SAP FI configuration
-Incident management
-Process automation
-Functional design
-Testing and UAT
-Data management
-End-user training
-Agile methodology</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>INDUSTRY EXPERIENCE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Energy
+Consumer Goods &amp; Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FUNCTIONAL EXPERIENCE</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SAP FI configuration
+Process automation
+Incident management
+Integration testing
+Functional design
+User acceptance testing (UAT)
+Data management</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>CERTIFICATIONS/TRAINING</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>First Certificate in English – FCE
 Captton course SAP MM-SAD</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>LANGUAGES</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>English Advanced</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Role_1</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>SAP FI Functional Analyst  
 **Gestión** y **configuración funcional** en **SAP FI**, incluyendo activos fijos y cuentas contables.  
-**Seguimiento de incidencias** y análisis de errores en procesos automatizados.  
-**Colaboración** con equipos técnicos y globales para la mejora continua de sistemas.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Role_2</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Acquisition and Corporate SAP Analyst  
-**Liderazgo** en la implementación de mejoras y nuevas funcionalidades en **SAP**, abarcando diseño funcional y coordinación de desarrollo.  
-**Conducción de reuniones** con áreas de negocio para el relevamiento de requerimientos y optimización de procesos.  
-**Diseño y ejecución** de mejoras en **SAP** y sus interfaces (FIORI, ARIBA, SMART-GEP).</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Role_3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Application Development Associate Junior  
-**Soporte** en **SAP MM**, incluyendo resolución de incidentes y atención al usuario.  
-**Participación** en el proyecto de implementación de **SAP MM** y **PM**, enfocándose en la migración de datos.</t>
+**Seguimiento** de incidencias y **análisis de errores** en procesos automatizados.  
+**Colaboración** con equipos técnicos y globales para la mejora continua del sistema.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Role_2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Acquisition and Corporate SAP Analyst  
+**Liderazgo** en la implementación de mejoras y nuevas funcionalidades en **SAP**, incluyendo diseño funcional y coordinación de desarrollo.  
+**Conducción** de reuniones con áreas de negocio para el relevamiento de requerimientos y **optimización** de procesos.  
+**Diseño** y **ejecución** de mejoras en **SAP** y sus interfaces como **FIORI** y **ARIBA**.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Role_3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Application Development Associate Junior  
+**Soporte** en **SAP MM**: resolución de incidentes y atención al usuario.  
+**Participación** en el proyecto de implementación de **SAP MM** y **PM**, incluyendo migración de datos en la industria petrolera.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Role_4</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>IT Trainee  
-**Soporte** a la interfaz **SAP/GEP**, incluyendo monitoreo de errores y testing de mejoras.  
-**Colaboración** en la mejora de procesos a través de la identificación de errores y su resolución.</t>
+**Soporte** a la interfaz **SAP/GEP**: monitoreo de errores y **testing** de mejoras.  
+**Colaboración** en la mejora de procesos y soporte administrativo.</t>
         </is>
       </c>
     </row>
